--- a/assets/format/FormatDataApproval.xlsx
+++ b/assets/format/FormatDataApproval.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>nama</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>kode_nama</t>
@@ -356,20 +353,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -377,9 +374,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
